--- a/archives/reasearch.xlsx
+++ b/archives/reasearch.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\mgsmith57\bedfordiansrc\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92AD2EA-79DF-4CB2-9DDE-054B9369D211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A85A2-85BC-48A9-BB9A-FB0FDEF0E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="21216" windowHeight="14592" xr2:uid="{F73B3530-428A-4D5E-A583-0F6A2B919A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ashburton Shield" sheetId="15" r:id="rId1"/>
-    <sheet name="Country Life" sheetId="13" r:id="rId2"/>
-    <sheet name="De Putron Cup" sheetId="1" r:id="rId3"/>
-    <sheet name="H. L. David Tankard" sheetId="10" r:id="rId4"/>
-    <sheet name="Veterans" sheetId="14" r:id="rId5"/>
-    <sheet name="OB Match" sheetId="11" r:id="rId6"/>
-    <sheet name="House Shooting" sheetId="8" r:id="rId7"/>
-    <sheet name="Chapman Cup" sheetId="4" r:id="rId8"/>
-    <sheet name="Croker Cup" sheetId="5" r:id="rId9"/>
-    <sheet name="Ranges Mentioned" sheetId="7" r:id="rId10"/>
-    <sheet name="Doig Cup" sheetId="6" r:id="rId11"/>
-    <sheet name="Shooting Masters" sheetId="3" r:id="rId12"/>
-    <sheet name="Notes" sheetId="2" r:id="rId13"/>
+    <sheet name="H A S Prior" sheetId="16" r:id="rId2"/>
+    <sheet name="Country Life" sheetId="13" r:id="rId3"/>
+    <sheet name="De Putron Cup" sheetId="1" r:id="rId4"/>
+    <sheet name="H. L. David Tankard" sheetId="10" r:id="rId5"/>
+    <sheet name="Veterans" sheetId="14" r:id="rId6"/>
+    <sheet name="OB Match" sheetId="11" r:id="rId7"/>
+    <sheet name="House Shooting" sheetId="8" r:id="rId8"/>
+    <sheet name="Chapman Cup" sheetId="4" r:id="rId9"/>
+    <sheet name="Croker Cup" sheetId="5" r:id="rId10"/>
+    <sheet name="Ranges Mentioned" sheetId="7" r:id="rId11"/>
+    <sheet name="Doig Cup" sheetId="6" r:id="rId12"/>
+    <sheet name="Shooting Masters" sheetId="3" r:id="rId13"/>
+    <sheet name="Notes" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>school shoulder to shoulder matches on a more extensive</t>
   </si>
@@ -377,9 +378,6 @@
     <t>O.Bs could not raise a full team—probably due to shyness on the part of some—so it was agreed to shoot 6 a side</t>
   </si>
   <si>
-    <t>1989/03 - Issue 80</t>
-  </si>
-  <si>
     <t>Antepenultimate</t>
   </si>
   <si>
@@ -390,6 +388,51 @@
   </si>
   <si>
     <t>Charterhouse</t>
+  </si>
+  <si>
+    <t>1889/03 - Issue 80</t>
+  </si>
+  <si>
+    <t>1890/04 - Issue 89</t>
+  </si>
+  <si>
+    <t>Entrants</t>
+  </si>
+  <si>
+    <t>1894 - Issue 120</t>
+  </si>
+  <si>
+    <t>1896 - Issue 21</t>
+  </si>
+  <si>
+    <t>Two more points together with a bull on the right target instead of the wrong would have brought the Ashburton Shield to Bedford</t>
+  </si>
+  <si>
+    <t>1897 - Issue 51</t>
+  </si>
+  <si>
+    <t>Sgt. Jenkins</t>
+  </si>
+  <si>
+    <t>Best aggregate in the school team.</t>
+  </si>
+  <si>
+    <t>1898 - Issue 83</t>
+  </si>
+  <si>
+    <t>1898 - Issue Xmas - Has position</t>
+  </si>
+  <si>
+    <t>Dulwich</t>
+  </si>
+  <si>
+    <t>1900 - Issue 144</t>
+  </si>
+  <si>
+    <t>Eton</t>
+  </si>
+  <si>
+    <t>1901 - Issue 173</t>
   </si>
 </sst>
 </file>
@@ -419,15 +462,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -435,12 +484,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -449,6 +509,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,15 +788,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{001A2E65-31B9-48CF-B825-876BCD9C0F89}" name="Table4" displayName="Table4" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{001A2E65-31B9-48CF-B825-876BCD9C0F89}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{001A2E65-31B9-48CF-B825-876BCD9C0F89}" name="Table4" displayName="Table4" ref="A1:H11" totalsRowShown="0">
+  <autoFilter ref="A1:H11" xr:uid="{001A2E65-31B9-48CF-B825-876BCD9C0F89}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2F9D7D01-3F80-4093-82A5-08A7648CF642}" name="Year"/>
     <tableColumn id="2" xr3:uid="{5CF4E8D2-4309-4D85-ACFA-C2CFD549C2CC}" name="Ref" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{2147F303-DB16-48EB-954C-A799ADE4159A}" name="Pos"/>
     <tableColumn id="4" xr3:uid="{AFD55D95-FA8A-4905-A9EE-6FE77B3F8861}" name="Score"/>
     <tableColumn id="5" xr3:uid="{B6718166-7D4B-4C30-BC81-4DF621AA780F}" name="Winner"/>
     <tableColumn id="6" xr3:uid="{85D2191A-9504-462E-8FF7-05E72D78F549}" name="Winner Score"/>
+    <tableColumn id="8" xr3:uid="{58FD127A-6D8E-4C8B-B60A-D1DF3A78D59C}" name="Entrants"/>
     <tableColumn id="7" xr3:uid="{888D9BDF-A09E-4A6D-8BD6-A3FA210CB017}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1093,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87885E6A-ECBE-4653-8B31-661DA28D1269}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1104,11 +1167,11 @@
     <col min="2" max="2" width="24.15625" customWidth="1"/>
     <col min="3" max="3" width="17.05078125" customWidth="1"/>
     <col min="5" max="5" width="16.3671875" customWidth="1"/>
-    <col min="6" max="6" width="17.578125" customWidth="1"/>
-    <col min="7" max="7" width="30.68359375" customWidth="1"/>
+    <col min="6" max="7" width="17.578125" customWidth="1"/>
+    <col min="8" max="8" width="30.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1125,84 +1188,261 @@
         <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1889</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
       </c>
       <c r="D2">
         <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>459</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
+        <v>1890</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>389</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1894</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>397</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>422</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1896</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>364</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>414</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1897</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>459</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1898</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>444</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1900</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>403</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8">
+        <v>450</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>1901</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>444</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>456</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>1905</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>1914</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C4">
+      <c r="C11">
         <v>42</v>
       </c>
-      <c r="D4">
+      <c r="D11">
         <v>451</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="F4">
+      <c r="F11">
         <v>496</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="1910/14 - Issue 388" xr:uid="{50A26775-1E8B-4B95-A735-617268E58709}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{CFCBF115-CD5E-44D8-8CB1-36B608BFFFF6}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{3C40D43D-E73C-403B-8747-2D130211D692}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{CD9D9607-8A55-4014-8B4D-A205D1DE164A}"/>
+    <hyperlink ref="H2" r:id="rId1" display="1910/14 - Issue 388" xr:uid="{50A26775-1E8B-4B95-A735-617268E58709}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{CFCBF115-CD5E-44D8-8CB1-36B608BFFFF6}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{3C40D43D-E73C-403B-8747-2D130211D692}"/>
+    <hyperlink ref="B2" r:id="rId4" display="1989/03 - Issue 80" xr:uid="{CD9D9607-8A55-4014-8B4D-A205D1DE164A}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{AAC30DBD-25A9-4AF7-A12A-822B14E7B780}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{C4E34ED1-D4B1-4F7C-9313-EDD70C5EF734}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{81C12495-D208-4432-B92D-052858FBA497}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{4DF2E338-F11E-468C-BDC1-11B8CD149191}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{A81AE9DB-49BA-4BEE-8F22-787616096300}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{4F1FA562-829C-47BB-ABF3-BDEC1FF8CA50}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{03EBDDAF-D8B8-4A2C-AE9B-6E43E43611E7}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{6AAEC631-3276-4F33-A698-5B4EC49D4762}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872142C-D96D-4E29-B0D7-F564DFB74207}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D081D331-0541-4D53-903E-EACDBCAB987A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1237,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8232343-22CE-49A5-80C4-0DD54CC4980D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1255,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF4F0DD-8C4D-4440-8F3C-F8FD736D5987}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1331,7 +1571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06644B92-F54F-4655-A5BB-6CC1563215B5}">
   <dimension ref="A2:B4"/>
   <sheetViews>
@@ -1368,6 +1608,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42F6BB-CF5F-42E4-863C-79C2D0D51CD2}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.68359375" customWidth="1"/>
+    <col min="11" max="11" width="35.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1897</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAEC408-305A-43C3-99B1-05BD29DB4291}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1428,7 +1707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC3549D-579F-404D-B80E-00E159DECCFA}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -1979,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9475FFE-459F-4F00-9039-6E9556DBB272}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2014,7 +2293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D4A42-BE90-4250-B665-236A6C61E0CA}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2087,7 +2366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8705213C-BA9A-4002-BA69-6EE884FAAD6C}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -2485,16 +2764,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAC83AF-04B5-49CE-8364-304A4ECA8CAA}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="18.83984375" customWidth="1"/>
     <col min="2" max="2" width="23.62890625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2594,264 +2874,276 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>1914</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>1900</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3">
-        <v>114</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>111</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3">
-        <v>110</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3">
-        <v>110</v>
-      </c>
-      <c r="M3" t="s">
         <v>59</v>
-      </c>
-      <c r="N3">
-        <v>79</v>
-      </c>
-      <c r="O3">
-        <v>120</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3">
-        <v>116</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3">
-        <v>115</v>
-      </c>
-      <c r="U3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3">
-        <v>108</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3">
-        <v>98</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3">
-        <v>84</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>1934</v>
+        <v>1914</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
       </c>
       <c r="F4">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>110</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4">
+        <v>79</v>
+      </c>
+      <c r="O4">
+        <v>120</v>
+      </c>
+      <c r="Q4" t="s">
         <v>58</v>
       </c>
-      <c r="J4">
-        <v>160</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4">
-        <v>154</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4">
-        <v>127</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4">
+        <v>116</v>
+      </c>
+      <c r="S4" t="s">
         <v>56</v>
       </c>
-      <c r="R4">
-        <v>201</v>
-      </c>
-      <c r="S4" t="s">
-        <v>58</v>
-      </c>
       <c r="T4">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="U4" t="s">
         <v>59</v>
       </c>
       <c r="V4">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X4">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="Y4" t="s">
         <v>54</v>
       </c>
       <c r="Z4">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB4">
-        <v>153</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>1954</v>
+        <v>1934</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>161</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="D5">
-        <v>275</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5">
-        <v>252</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5">
-        <v>232</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N5">
+        <v>127</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5">
+        <v>201</v>
+      </c>
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5">
+        <v>186</v>
+      </c>
+      <c r="U5" t="s">
         <v>59</v>
       </c>
-      <c r="J5">
-        <v>223</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5">
-        <v>214</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5">
-        <v>194</v>
-      </c>
-      <c r="O5">
-        <v>280</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5">
-        <v>64</v>
-      </c>
-      <c r="S5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5">
-        <v>63</v>
-      </c>
-      <c r="U5" t="s">
-        <v>56</v>
-      </c>
       <c r="V5">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="W5" t="s">
         <v>57</v>
       </c>
       <c r="X5">
+        <v>170</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5">
+        <v>170</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1954</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>252</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>232</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <v>223</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="L6">
+        <v>214</v>
+      </c>
+      <c r="M6" t="s">
         <v>58</v>
       </c>
-      <c r="Z5">
+      <c r="N6">
+        <v>194</v>
+      </c>
+      <c r="O6">
+        <v>280</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6">
+        <v>63</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="Z6">
+        <v>58</v>
+      </c>
+      <c r="AA6" t="s">
         <v>59</v>
       </c>
-      <c r="AB5">
+      <c r="AB6">
         <v>57</v>
       </c>
-      <c r="AC5">
+      <c r="AC6">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{2103F816-35C7-4D63-AD92-CA5664231242}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B13504AE-1574-4D87-A5EA-A7D0B1FC69D8}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{D68E69D3-8943-4875-A2E2-BDB78E5F69CF}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{2103F816-35C7-4D63-AD92-CA5664231242}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{B13504AE-1574-4D87-A5EA-A7D0B1FC69D8}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{D68E69D3-8943-4875-A2E2-BDB78E5F69CF}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{A41959AA-F1D7-4205-B4B0-FA4A52416BE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82319112-4400-4EEC-AFF2-D38921059658}">
   <dimension ref="I2:N2"/>
   <sheetViews>
@@ -2877,22 +3169,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872142C-D96D-4E29-B0D7-F564DFB74207}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/archives/reasearch.xlsx
+++ b/archives/reasearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\mgsmith57\bedfordiansrc\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A85A2-85BC-48A9-BB9A-FB0FDEF0E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B1915-D138-4E22-BA69-B91345AAD404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="21216" windowHeight="14592" xr2:uid="{F73B3530-428A-4D5E-A583-0F6A2B919A8E}"/>
   </bookViews>
